--- a/biology/Botanique/Acacia_salicina/Acacia_salicina.xlsx
+++ b/biology/Botanique/Acacia_salicina/Acacia_salicina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acacia salicina est une espèce d'arbre originaire de l’est de l’Australie. La moyenne annuelle des précipitations de son habitat est de 375 à 550 mm, mais on peut le trouver dans les zones au-delà de 1 500 mm de précipitations par an dans le nord du Queensland et en dessous de 100 mm annuels dans le centre de l'Australie. On le trouve à une altitude de 50 à 300 m au-dessus de la mer. Il pousse bien en plein soleil et tolère les gelées jusqu'à −7 °C.
 C'est un arbuste ou arbre à feuilles persistantes de 3 à 20 m de haut. Il a une durée de vie d'environ 10 à 15 ans. Dans l'hémisphère nord, Acacia salicina fleurit principalement de janvier à octobre et les gousses sont souvent visibles d'avril à juillet. Les graines sont brillantes, noires et ont un appendice cramoisi comme arille. Acacia salicina est proche d' Acacia ligulata et d' Acacia bivenosa.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Acacia salicina Lindl. var. typica Domin
 Acacia salicina Lindl. var. varians (Benth.) Benth.
@@ -546,11 +560,13 @@
           <t>Composés chimiques produits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(-)-7,8,3',4'-tetrahydroxyflavanone[2]
-7,8,3',4'-tetrahydroxydihydroflavonol[2]
-7,8,3',4'-tetrahydroxyflavonol[2]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(-)-7,8,3',4'-tetrahydroxyflavanone
+7,8,3',4'-tetrahydroxydihydroflavonol
+7,8,3',4'-tetrahydroxyflavonol</t>
         </is>
       </c>
     </row>
